--- a/treningsdagbok.xlsx
+++ b/treningsdagbok.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bendik Bærbar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bendik Bærbar\treningsdagbok\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="8730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18768" windowHeight="8736"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
   <si>
     <t>dato</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>må ta knebøy igjen</t>
+  </si>
+  <si>
+    <t>ta benk og knebøy på nytt, glemte at jeg skulle ta 62,5</t>
   </si>
 </sst>
 </file>
@@ -708,6 +711,9 @@
                 <c:pt idx="70">
                   <c:v>42895</c:v>
                 </c:pt>
+                <c:pt idx="71">
+                  <c:v>42905</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -841,6 +847,9 @@
                   <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
@@ -1340,6 +1349,9 @@
                 <c:pt idx="70">
                   <c:v>42895</c:v>
                 </c:pt>
+                <c:pt idx="71">
+                  <c:v>42905</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1903,6 +1915,9 @@
                 <c:pt idx="70">
                   <c:v>42895</c:v>
                 </c:pt>
+                <c:pt idx="71">
+                  <c:v>42905</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1980,6 +1995,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2478,6 +2496,9 @@
                 <c:pt idx="70">
                   <c:v>42895</c:v>
                 </c:pt>
+                <c:pt idx="71">
+                  <c:v>42905</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3044,6 +3065,9 @@
                 <c:pt idx="70">
                   <c:v>42895</c:v>
                 </c:pt>
+                <c:pt idx="71">
+                  <c:v>42905</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3117,6 +3141,9 @@
                   <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -6573,20 +6600,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -6621,7 +6648,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>42669</v>
@@ -6642,7 +6669,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>42671</v>
@@ -6663,7 +6690,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>42674</v>
@@ -6684,7 +6711,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>42676</v>
@@ -6705,7 +6732,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
         <v>42678</v>
@@ -6726,7 +6753,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>75</v>
       </c>
@@ -6749,7 +6776,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>70</v>
       </c>
@@ -6774,7 +6801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>90</v>
       </c>
@@ -6799,7 +6826,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>65</v>
       </c>
@@ -6822,7 +6849,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>65</v>
       </c>
@@ -6845,7 +6872,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>80</v>
       </c>
@@ -6870,7 +6897,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>120</v>
       </c>
@@ -6889,7 +6916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>60</v>
       </c>
@@ -6918,7 +6945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>70</v>
       </c>
@@ -6943,7 +6970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>85</v>
       </c>
@@ -6968,7 +6995,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>50</v>
       </c>
@@ -6993,7 +7020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>70</v>
       </c>
@@ -7020,7 +7047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>60</v>
       </c>
@@ -7047,7 +7074,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>65</v>
       </c>
@@ -7074,7 +7101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>60</v>
       </c>
@@ -7095,7 +7122,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>75</v>
       </c>
@@ -7118,7 +7145,7 @@
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>65</v>
       </c>
@@ -7145,7 +7172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>80</v>
       </c>
@@ -7170,7 +7197,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>50</v>
       </c>
@@ -7195,7 +7222,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>60</v>
       </c>
@@ -7220,7 +7247,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>70</v>
       </c>
@@ -7247,7 +7274,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>70</v>
       </c>
@@ -7274,7 +7301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45</v>
       </c>
@@ -7297,7 +7324,7 @@
       </c>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>60</v>
       </c>
@@ -7320,7 +7347,7 @@
       </c>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>80</v>
       </c>
@@ -7347,7 +7374,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>80</v>
       </c>
@@ -7374,7 +7401,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>60</v>
       </c>
@@ -7397,7 +7424,7 @@
       </c>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>75</v>
       </c>
@@ -7424,7 +7451,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>60</v>
       </c>
@@ -7447,7 +7474,7 @@
       </c>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>60</v>
       </c>
@@ -7472,7 +7499,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>70</v>
       </c>
@@ -7499,7 +7526,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>65</v>
       </c>
@@ -7522,7 +7549,7 @@
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>30</v>
       </c>
@@ -7545,7 +7572,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>55</v>
       </c>
@@ -7570,7 +7597,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>60</v>
       </c>
@@ -7595,7 +7622,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>60</v>
       </c>
@@ -7614,7 +7641,7 @@
       </c>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>65</v>
       </c>
@@ -7641,7 +7668,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>300</v>
       </c>
@@ -7662,7 +7689,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>70</v>
       </c>
@@ -7689,7 +7716,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>55</v>
       </c>
@@ -7712,7 +7739,7 @@
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>65</v>
       </c>
@@ -7741,7 +7768,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>35</v>
       </c>
@@ -7764,7 +7791,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>65</v>
       </c>
@@ -7789,7 +7816,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>55</v>
       </c>
@@ -7814,7 +7841,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>80</v>
       </c>
@@ -7837,7 +7864,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>90</v>
       </c>
@@ -7856,7 +7883,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>30</v>
       </c>
@@ -7877,7 +7904,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>65</v>
       </c>
@@ -7900,7 +7927,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>40</v>
       </c>
@@ -7919,7 +7946,7 @@
       </c>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>75</v>
       </c>
@@ -7944,7 +7971,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45</v>
       </c>
@@ -7965,7 +7992,7 @@
       </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>120</v>
       </c>
@@ -7984,7 +8011,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>75</v>
       </c>
@@ -8009,7 +8036,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>30</v>
       </c>
@@ -8032,7 +8059,7 @@
       </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>55</v>
       </c>
@@ -8049,7 +8076,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>55</v>
       </c>
@@ -8070,7 +8097,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>40</v>
       </c>
@@ -8093,7 +8120,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>60</v>
       </c>
@@ -8116,7 +8143,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -8141,7 +8168,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>120</v>
       </c>
@@ -8162,7 +8189,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <f>65+190</f>
         <v>255</v>
@@ -8192,7 +8219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>65</v>
       </c>
@@ -8217,7 +8244,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>60</v>
       </c>
@@ -8240,7 +8267,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>65</v>
       </c>
@@ -8265,7 +8292,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>55</v>
       </c>
@@ -8286,7 +8313,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>55</v>
       </c>
@@ -8311,20 +8338,32 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>60</v>
+      </c>
+      <c r="B76" s="2">
+        <v>42905</v>
+      </c>
+      <c r="C76" s="1">
+        <v>115</v>
+      </c>
+      <c r="D76" s="1">
+        <v>85</v>
+      </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="G76" s="1">
+        <v>60</v>
+      </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -8337,7 +8376,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -8350,7 +8389,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -8363,7 +8402,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -8376,7 +8415,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -8389,7 +8428,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -8402,7 +8441,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -8415,7 +8454,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -8428,7 +8467,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -8441,7 +8480,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -8454,7 +8493,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -8467,7 +8506,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -8480,7 +8519,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -8493,7 +8532,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -8506,7 +8545,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -8519,7 +8558,7 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -8532,7 +8571,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -8545,7 +8584,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -8558,7 +8597,7 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -8571,7 +8610,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -8584,7 +8623,7 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -8597,7 +8636,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -8610,7 +8649,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -8623,7 +8662,7 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -8636,7 +8675,7 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -8649,7 +8688,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -8662,7 +8701,7 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -8675,7 +8714,7 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -8688,7 +8727,7 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -8701,7 +8740,7 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -8714,7 +8753,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -8727,7 +8766,7 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -8740,7 +8779,7 @@
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -8753,7 +8792,7 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -8766,7 +8805,7 @@
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -8779,7 +8818,7 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -8792,7 +8831,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -8805,7 +8844,7 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -8818,7 +8857,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -8831,7 +8870,7 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -8844,7 +8883,7 @@
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -8857,7 +8896,7 @@
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -8870,7 +8909,7 @@
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -8883,7 +8922,7 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -8896,7 +8935,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -8909,7 +8948,7 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -8922,7 +8961,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -8935,7 +8974,7 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -8948,7 +8987,7 @@
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -8961,7 +9000,7 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -8974,7 +9013,7 @@
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -8987,7 +9026,7 @@
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -9000,7 +9039,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -9013,7 +9052,7 @@
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -9026,7 +9065,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>

--- a/treningsdagbok.xlsx
+++ b/treningsdagbok.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bendik Bærbar\treningsdagbok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bendik\treningsdagbok\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18768" windowHeight="8736"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1785" windowHeight="1335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="156">
   <si>
     <t>dato</t>
   </si>
@@ -38,9 +40,6 @@
     <t>markløft</t>
   </si>
   <si>
-    <t>press</t>
-  </si>
-  <si>
     <t>row</t>
   </si>
   <si>
@@ -303,12 +302,207 @@
   </si>
   <si>
     <t>ta benk og knebøy på nytt, glemte at jeg skulle ta 62,5</t>
+  </si>
+  <si>
+    <t>rakk ikke markløft, må ta ohp på nytt</t>
+  </si>
+  <si>
+    <t>må ta mark på nytt</t>
+  </si>
+  <si>
+    <t>tok bare oppvarming på knebøy</t>
+  </si>
+  <si>
+    <t>ta knebøy og benk på nytt, tenneis ble gjor etterpå</t>
+  </si>
+  <si>
+    <t>OHP</t>
+  </si>
+  <si>
+    <t>22-17-10</t>
+  </si>
+  <si>
+    <t>må ta pendlays på nytt</t>
+  </si>
+  <si>
+    <t>må ta mark og knebøy på nytt</t>
+  </si>
+  <si>
+    <t>må ta knebøy og pendalys på nytt</t>
+  </si>
+  <si>
+    <t>tok feil av vekten på OHP</t>
+  </si>
+  <si>
+    <t>må ta alt på nytt, da jeg var støl etter onsdagen</t>
+  </si>
+  <si>
+    <t>må ta ohp på nytt</t>
+  </si>
+  <si>
+    <t>må ta pause fra knebøy, må ta benk på nytt</t>
+  </si>
+  <si>
+    <t>Set 3</t>
+  </si>
+  <si>
+    <t>Set 2</t>
+  </si>
+  <si>
+    <t>Set 1</t>
+  </si>
+  <si>
+    <t>Uke</t>
+  </si>
+  <si>
+    <t>Markløft</t>
+  </si>
+  <si>
+    <t>Knebøy</t>
+  </si>
+  <si>
+    <t>Benk</t>
+  </si>
+  <si>
+    <t>de tre første månedene</t>
+  </si>
+  <si>
+    <t>legg til:</t>
+  </si>
+  <si>
+    <t>set 3 (+)</t>
+  </si>
+  <si>
+    <t>set 2</t>
+  </si>
+  <si>
+    <t>set 1</t>
+  </si>
+  <si>
+    <t>deload(x5)</t>
+  </si>
+  <si>
+    <t>uke 4</t>
+  </si>
+  <si>
+    <t>uke 3</t>
+  </si>
+  <si>
+    <t>uke 2</t>
+  </si>
+  <si>
+    <t>uke 1</t>
+  </si>
+  <si>
+    <t>max:</t>
+  </si>
+  <si>
+    <t>5-3-1 kalkulator</t>
+  </si>
+  <si>
+    <t>Tirsdag</t>
+  </si>
+  <si>
+    <t>Onsdag</t>
+  </si>
+  <si>
+    <t>Torsdag</t>
+  </si>
+  <si>
+    <t>Fredag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lørdag </t>
+  </si>
+  <si>
+    <t>Søndag</t>
+  </si>
+  <si>
+    <t>Mandag</t>
+  </si>
+  <si>
+    <t>Chins 5x15</t>
+  </si>
+  <si>
+    <t>Dips 5 x10</t>
+  </si>
+  <si>
+    <t>Benkpress</t>
+  </si>
+  <si>
+    <t>Fotball</t>
+  </si>
+  <si>
+    <t>Fotballkamp</t>
+  </si>
+  <si>
+    <t>langjog</t>
+  </si>
+  <si>
+    <t>G.M. x15</t>
+  </si>
+  <si>
+    <t>H.L.R x10</t>
+  </si>
+  <si>
+    <t>G.M = good morning</t>
+  </si>
+  <si>
+    <t>H.L.R = hanging leg raise</t>
+  </si>
+  <si>
+    <t>Pendlays</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x{5,3,1}</t>
+  </si>
+  <si>
+    <t>L.P x 15</t>
+  </si>
+  <si>
+    <t>B. FV. X 15</t>
+  </si>
+  <si>
+    <t>L.C x 10</t>
+  </si>
+  <si>
+    <t>L.P = leg press</t>
+  </si>
+  <si>
+    <t>L.C = leg curl</t>
+  </si>
+  <si>
+    <t>evt hvile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">est. Tid </t>
+  </si>
+  <si>
+    <t>B.FV = benkpress med manualer</t>
+  </si>
+  <si>
+    <t>syk</t>
+  </si>
+  <si>
+    <t>fjelltur</t>
+  </si>
+  <si>
+    <t>fortsetter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[&lt;=9999]0000;General"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -326,7 +520,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -349,16 +543,260 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,7 +843,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
@@ -714,6 +1152,57 @@
                 <c:pt idx="71">
                   <c:v>42905</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>42907</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42912</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42921</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42926</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42928</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42940</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42942</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42944</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42956</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42958</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42961</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42963</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -852,11 +1341,38 @@
                 <c:pt idx="71">
                   <c:v>115</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>117.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>122.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>112.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BF53-4175-9325-C8F8B7DF505C}"/>
             </c:ext>
@@ -870,11 +1386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="469973992"/>
-        <c:axId val="469971040"/>
+        <c:axId val="242029728"/>
+        <c:axId val="242034040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="469973992"/>
+        <c:axId val="242029728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -931,12 +1447,12 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469971040"/>
+        <c:crossAx val="242034040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="469971040"/>
+        <c:axId val="242034040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,7 +1509,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469973992"/>
+        <c:crossAx val="242029728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1043,7 +1559,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
@@ -1352,6 +1868,57 @@
                 <c:pt idx="71">
                   <c:v>42905</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>42907</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42912</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42921</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42926</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42928</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42940</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42942</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42944</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42956</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42958</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42961</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42963</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1418,11 +1985,32 @@
                 <c:pt idx="67">
                   <c:v>110</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>130</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A6D7-4C89-B2DD-8293388AA9C5}"/>
             </c:ext>
@@ -1436,11 +2024,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="474784864"/>
-        <c:axId val="474785848"/>
+        <c:axId val="242033648"/>
+        <c:axId val="242031296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="474784864"/>
+        <c:axId val="242033648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1497,12 +2085,12 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474785848"/>
+        <c:crossAx val="242031296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474785848"/>
+        <c:axId val="242031296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +2147,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474784864"/>
+        <c:crossAx val="242033648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1609,7 +2197,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
@@ -1698,10 +2286,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$B$5:$B$80</c:f>
+              <c:f>'Ark1'!$B$5:$B$131</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="127"/>
                 <c:pt idx="0">
                   <c:v>42669</c:v>
                 </c:pt>
@@ -1917,16 +2505,67 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>42905</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42907</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42912</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42921</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42926</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42928</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42940</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42942</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42944</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42956</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42958</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42961</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$D$5:$D$80</c:f>
+              <c:f>'Ark1'!$D$5:$D$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="127"/>
                 <c:pt idx="1">
                   <c:v>77.5</c:v>
                 </c:pt>
@@ -1998,12 +2637,39 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-14CB-45E5-BDA1-D68A75C09D50}"/>
             </c:ext>
@@ -2017,11 +2683,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="469976944"/>
-        <c:axId val="469978256"/>
+        <c:axId val="242032080"/>
+        <c:axId val="242028944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="469976944"/>
+        <c:axId val="242032080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,12 +2744,12 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469978256"/>
+        <c:crossAx val="242028944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="469978256"/>
+        <c:axId val="242028944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,7 +2806,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469976944"/>
+        <c:crossAx val="242032080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2190,7 +2856,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
@@ -2248,7 +2914,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>press</c:v>
+                  <c:v>OHP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2279,10 +2945,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Ark1'!$B$5:$B$87</c:f>
+              <c:f>'Ark1'!$B$5:$B$264</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="260"/>
                 <c:pt idx="0">
                   <c:v>42669</c:v>
                 </c:pt>
@@ -2498,16 +3164,67 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>42905</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42907</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42912</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42921</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42926</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42928</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42940</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42942</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42944</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42956</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42958</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42961</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Ark1'!$F$5:$F$87</c:f>
+              <c:f>'Ark1'!$F$5:$F$264</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="260"/>
                 <c:pt idx="0">
                   <c:v>35</c:v>
                 </c:pt>
@@ -2567,12 +3284,36 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5B90-46B1-BDE1-D95D46FD0614}"/>
             </c:ext>
@@ -2586,11 +3327,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="385358832"/>
-        <c:axId val="385353912"/>
+        <c:axId val="242031688"/>
+        <c:axId val="242032472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="385358832"/>
+        <c:axId val="242031688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,12 +3388,12 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385353912"/>
+        <c:crossAx val="242032472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385353912"/>
+        <c:axId val="242032472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2709,7 +3450,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385358832"/>
+        <c:crossAx val="242031688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2759,7 +3500,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="nb-NO"/>
   <c:roundedCorners val="0"/>
@@ -2804,7 +3545,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8490470451244792E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.90772642462375408"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3068,6 +3819,57 @@
                 <c:pt idx="71">
                   <c:v>42905</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>42907</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42912</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42919</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42921</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42926</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42928</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42930</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42940</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42942</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42944</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42956</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42958</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42961</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42963</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3146,11 +3948,38 @@
                 <c:pt idx="71">
                   <c:v>60</c:v>
                 </c:pt>
+                <c:pt idx="73">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>70</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0CF5-474E-AB2E-BE01BDC003D9}"/>
             </c:ext>
@@ -3164,11 +3993,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="583493672"/>
-        <c:axId val="583494000"/>
+        <c:axId val="126427720"/>
+        <c:axId val="243991392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="583493672"/>
+        <c:axId val="126427720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3225,12 +4054,12 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583494000"/>
+        <c:crossAx val="243991392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="583494000"/>
+        <c:axId val="243991392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3287,7 +4116,7 @@
             <a:endParaRPr lang="nb-NO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583493672"/>
+        <c:crossAx val="126427720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6126,8 +6955,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -6136,7 +6965,7 @@
         <xdr:cNvPr id="13" name="Diagram 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{759D02E1-A49D-4478-BF33-6FF32FD5FE3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{759D02E1-A49D-4478-BF33-6FF32FD5FE3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6156,23 +6985,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>100011</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="14" name="Diagram 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC6F4A7-6DEF-4DCE-B8A0-AF785808F7FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEC6F4A7-6DEF-4DCE-B8A0-AF785808F7FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6193,22 +7022,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="15" name="Diagram 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFBF1CA-429E-43A2-8A84-148CE6D08285}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0FFBF1CA-429E-43A2-8A84-148CE6D08285}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6228,23 +7057,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="16" name="Diagram 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AAAE953-2CE9-4431-B836-C470EFFF7C01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AAAE953-2CE9-4431-B836-C470EFFF7C01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6265,22 +7094,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>109536</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="17" name="Diagram 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA81068-FD91-46A9-92E5-1D1FB0D1AA93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAA81068-FD91-46A9-92E5-1D1FB0D1AA93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6600,22 +7429,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -6630,25 +7459,25 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>42669</v>
@@ -6669,7 +7498,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>42671</v>
@@ -6690,7 +7519,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>42674</v>
@@ -6711,7 +7540,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>42676</v>
@@ -6732,7 +7561,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
         <v>42678</v>
@@ -6753,7 +7582,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>75</v>
       </c>
@@ -6776,7 +7605,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>70</v>
       </c>
@@ -6798,10 +7627,10 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>90</v>
       </c>
@@ -6821,12 +7650,12 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>65</v>
       </c>
@@ -6839,17 +7668,17 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="J13" s="1">
         <v>4</v>
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>65</v>
       </c>
@@ -6862,17 +7691,17 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1">
         <v>4</v>
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>80</v>
       </c>
@@ -6892,12 +7721,12 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>120</v>
       </c>
@@ -6913,10 +7742,10 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>60</v>
       </c>
@@ -6935,17 +7764,17 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>70</v>
       </c>
@@ -6958,19 +7787,19 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1">
         <v>5</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>85</v>
       </c>
@@ -6990,12 +7819,12 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>50</v>
       </c>
@@ -7008,19 +7837,19 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1">
         <v>3</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>70</v>
       </c>
@@ -7040,14 +7869,14 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>60</v>
       </c>
@@ -7067,14 +7896,14 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>65</v>
       </c>
@@ -7094,14 +7923,14 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>60</v>
       </c>
@@ -7115,14 +7944,14 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J24" s="1">
         <v>4</v>
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>75</v>
       </c>
@@ -7135,17 +7964,17 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J25" s="1">
         <v>5.5</v>
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>65</v>
       </c>
@@ -7165,14 +7994,14 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>80</v>
       </c>
@@ -7192,12 +8021,12 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>50</v>
       </c>
@@ -7210,19 +8039,19 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J28" s="1">
         <v>3</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>60</v>
       </c>
@@ -7242,12 +8071,12 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>70</v>
       </c>
@@ -7267,14 +8096,14 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>70</v>
       </c>
@@ -7294,14 +8123,14 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45</v>
       </c>
@@ -7314,17 +8143,17 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J32" s="1">
         <v>4</v>
       </c>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>60</v>
       </c>
@@ -7337,17 +8166,17 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="J33" s="1">
         <v>6</v>
       </c>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>80</v>
       </c>
@@ -7366,15 +8195,15 @@
         <v>52.5</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>80</v>
       </c>
@@ -7393,15 +8222,15 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>60</v>
       </c>
@@ -7414,17 +8243,17 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="J36" s="1">
         <v>6.7</v>
       </c>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>75</v>
       </c>
@@ -7443,15 +8272,15 @@
         <v>55</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>60</v>
       </c>
@@ -7464,17 +8293,17 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J38" s="1">
         <v>5.3</v>
       </c>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>60</v>
       </c>
@@ -7494,12 +8323,12 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>70</v>
       </c>
@@ -7519,14 +8348,14 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>65</v>
       </c>
@@ -7539,17 +8368,17 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J41" s="1">
         <v>7.5</v>
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>30</v>
       </c>
@@ -7569,10 +8398,10 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>55</v>
       </c>
@@ -7585,19 +8414,19 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="J43" s="1">
         <v>3</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>60</v>
       </c>
@@ -7619,10 +8448,10 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>60</v>
       </c>
@@ -7641,7 +8470,7 @@
       </c>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>65</v>
       </c>
@@ -7661,14 +8490,14 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>300</v>
       </c>
@@ -7686,10 +8515,10 @@
         <v>40</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>70</v>
       </c>
@@ -7709,14 +8538,14 @@
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>55</v>
       </c>
@@ -7729,17 +8558,17 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J49" s="1">
         <v>5.5</v>
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>65</v>
       </c>
@@ -7758,17 +8587,17 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>35</v>
       </c>
@@ -7782,16 +8611,16 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J51" s="1">
         <v>3.6</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>65</v>
       </c>
@@ -7809,14 +8638,14 @@
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>55</v>
       </c>
@@ -7834,14 +8663,14 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>80</v>
       </c>
@@ -7864,7 +8693,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>90</v>
       </c>
@@ -7880,10 +8709,10 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>30</v>
       </c>
@@ -7901,10 +8730,10 @@
         <v>2</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>65</v>
       </c>
@@ -7927,7 +8756,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40</v>
       </c>
@@ -7946,7 +8775,7 @@
       </c>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>75</v>
       </c>
@@ -7966,12 +8795,12 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45</v>
       </c>
@@ -7985,14 +8814,14 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J60" s="1">
         <v>5</v>
       </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>120</v>
       </c>
@@ -8008,10 +8837,10 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>75</v>
       </c>
@@ -8031,12 +8860,12 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30</v>
       </c>
@@ -8052,14 +8881,14 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J63" s="1">
         <v>5.8</v>
       </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>55</v>
       </c>
@@ -8076,7 +8905,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>55</v>
       </c>
@@ -8094,10 +8923,10 @@
         <v>2</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40</v>
       </c>
@@ -8117,10 +8946,10 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>60</v>
       </c>
@@ -8143,7 +8972,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -8165,10 +8994,10 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>120</v>
       </c>
@@ -8186,10 +9015,10 @@
         <v>5</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f>65+190</f>
         <v>255</v>
@@ -8210,16 +9039,16 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J70" s="1">
         <v>6</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>65</v>
       </c>
@@ -8241,10 +9070,10 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>60</v>
       </c>
@@ -8267,7 +9096,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>65</v>
       </c>
@@ -8289,10 +9118,10 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>55</v>
       </c>
@@ -8310,10 +9139,10 @@
         <v>3</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>55</v>
       </c>
@@ -8335,10 +9164,10 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>60</v>
       </c>
@@ -8360,231 +9189,409 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45</v>
+      </c>
+      <c r="B77" s="2">
+        <v>42907</v>
+      </c>
+      <c r="C77" s="1">
+        <v>115</v>
+      </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="1">
+        <v>45</v>
+      </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="K77" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>55</v>
+      </c>
+      <c r="B78" s="2">
+        <v>42912</v>
+      </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="D78" s="1">
+        <v>85</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="G78" s="1">
+        <v>62.5</v>
+      </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="K78" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>80</v>
+      </c>
+      <c r="B79" s="2">
+        <v>42914</v>
+      </c>
+      <c r="C79" s="1">
+        <v>117.5</v>
+      </c>
       <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+      <c r="E79" s="1">
+        <v>115</v>
+      </c>
+      <c r="F79" s="1">
+        <v>45</v>
+      </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="K79" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>240</v>
+      </c>
+      <c r="B80" s="2">
+        <v>42916</v>
+      </c>
+      <c r="C80" s="1">
+        <v>120</v>
+      </c>
+      <c r="D80" s="1">
+        <v>87.5</v>
+      </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="G80" s="1">
+        <v>65</v>
+      </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="K80" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>90</v>
+      </c>
+      <c r="B81" s="2">
+        <v>42919</v>
+      </c>
+      <c r="C81" s="1">
+        <v>120</v>
+      </c>
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="E81" s="1">
+        <v>115</v>
+      </c>
+      <c r="F81" s="1">
+        <v>47.5</v>
+      </c>
       <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="H81" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>70</v>
+      </c>
+      <c r="B82" s="2">
+        <v>42921</v>
+      </c>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="D82" s="1">
+        <v>87.5</v>
+      </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="G82" s="1">
+        <v>67.5</v>
+      </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="K82" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>90</v>
+      </c>
+      <c r="B83" s="2">
+        <v>42926</v>
+      </c>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="D83" s="1">
+        <v>90</v>
+      </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="G83" s="1">
+        <v>67.5</v>
+      </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>90</v>
+      </c>
+      <c r="B84" s="2">
+        <v>42928</v>
+      </c>
+      <c r="C84" s="1">
+        <v>122.5</v>
+      </c>
       <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="E84" s="1">
+        <v>120</v>
+      </c>
+      <c r="F84" s="1">
+        <v>50</v>
+      </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="K84" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>35</v>
+      </c>
+      <c r="B85" s="2">
+        <v>42930</v>
+      </c>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="D85" s="1">
+        <v>92.5</v>
+      </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="G85" s="1">
+        <v>70</v>
+      </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="K85" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>80</v>
+      </c>
+      <c r="B86" s="2">
+        <v>42940</v>
+      </c>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="D86" s="1">
+        <v>92.5</v>
+      </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="G86" s="1">
+        <v>72.5</v>
+      </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="K86" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>70</v>
+      </c>
+      <c r="B87" s="2">
+        <v>42942</v>
+      </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="E87" s="1">
+        <v>120</v>
+      </c>
+      <c r="F87" s="1">
+        <v>52.5</v>
+      </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>100</v>
+      </c>
+      <c r="B88" s="2">
+        <v>42944</v>
+      </c>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="D88" s="1">
+        <v>92.5</v>
+      </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="G88" s="1">
+        <v>75</v>
+      </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>90</v>
+      </c>
+      <c r="B89" s="2">
+        <v>42947</v>
+      </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="E89" s="1">
+        <v>125</v>
+      </c>
+      <c r="F89" s="1">
+        <v>57.5</v>
+      </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="K89" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>70</v>
+      </c>
+      <c r="B90" s="2">
+        <v>42956</v>
+      </c>
+      <c r="C90" s="1">
+        <v>110</v>
+      </c>
       <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="E90" s="1">
+        <v>130</v>
+      </c>
+      <c r="F90" s="1">
+        <v>50</v>
+      </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="K90" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>55</v>
+      </c>
+      <c r="B91" s="2">
+        <v>42958</v>
+      </c>
+      <c r="C91" s="1">
+        <v>110</v>
+      </c>
+      <c r="D91" s="1">
+        <v>90</v>
+      </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+      <c r="G91" s="1">
+        <v>70</v>
+      </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="K91" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>70</v>
+      </c>
+      <c r="B92" s="2">
+        <v>42961</v>
+      </c>
+      <c r="C92" s="1">
+        <v>110</v>
+      </c>
       <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+      <c r="E92" s="1">
+        <v>130</v>
+      </c>
+      <c r="F92" s="1">
+        <v>50</v>
+      </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="K92" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>60</v>
+      </c>
+      <c r="B93" s="2">
+        <v>42963</v>
+      </c>
+      <c r="C93" s="1">
+        <v>112.5</v>
+      </c>
+      <c r="D93" s="1">
+        <v>90</v>
+      </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+      <c r="G93" s="1">
+        <v>70</v>
+      </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -8597,7 +9604,7 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -8610,7 +9617,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -8623,7 +9630,7 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -8636,7 +9643,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -8649,7 +9656,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -8662,7 +9669,7 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -8675,7 +9682,7 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -8688,7 +9695,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -8701,7 +9708,7 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -8714,7 +9721,7 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -8727,7 +9734,7 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -8740,7 +9747,7 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -8753,7 +9760,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -8766,7 +9773,7 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -8779,7 +9786,7 @@
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -8792,7 +9799,7 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -8805,7 +9812,7 @@
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -8818,7 +9825,7 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -8831,7 +9838,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -8844,7 +9851,7 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -8857,7 +9864,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -8870,7 +9877,7 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -8883,7 +9890,7 @@
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -8896,7 +9903,7 @@
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -8909,7 +9916,7 @@
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -8922,7 +9929,7 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -8935,7 +9942,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -8948,7 +9955,7 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -8961,7 +9968,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -8974,7 +9981,7 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -8987,7 +9994,7 @@
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -9000,7 +10007,7 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -9013,7 +10020,7 @@
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -9026,7 +10033,7 @@
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -9039,7 +10046,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -9052,7 +10059,7 @@
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -9065,7 +10072,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -9082,4 +10089,1769 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12"/>
+      <c r="J2" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="T2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="J3" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="T3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <v>120</v>
+      </c>
+      <c r="E4" s="1">
+        <v>145</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1">
+        <v>75</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="J4" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="19"/>
+      <c r="T4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="9"/>
+      <c r="J5" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="O5" s="21"/>
+      <c r="P5" s="22"/>
+      <c r="T5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="9"/>
+      <c r="T6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="1">
+        <f>0.65*C4</f>
+        <v>65</v>
+      </c>
+      <c r="D7" s="1">
+        <f>0.65*D4</f>
+        <v>78</v>
+      </c>
+      <c r="E7" s="1">
+        <f>0.65*E4</f>
+        <v>94.25</v>
+      </c>
+      <c r="F7" s="1">
+        <f>0.65*F4</f>
+        <v>39</v>
+      </c>
+      <c r="G7" s="1">
+        <f>0.65*G4</f>
+        <v>48.75</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7">
+        <v>60</v>
+      </c>
+      <c r="K7">
+        <v>60</v>
+      </c>
+      <c r="L7">
+        <v>120</v>
+      </c>
+      <c r="M7">
+        <v>60</v>
+      </c>
+      <c r="N7">
+        <v>60</v>
+      </c>
+      <c r="O7">
+        <v>90</v>
+      </c>
+      <c r="P7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="1">
+        <f>0.75*C4</f>
+        <v>75</v>
+      </c>
+      <c r="D8" s="1">
+        <f>0.75*D4</f>
+        <v>90</v>
+      </c>
+      <c r="E8" s="1">
+        <f>0.75*E4</f>
+        <v>108.75</v>
+      </c>
+      <c r="F8" s="1">
+        <f>0.75*F4</f>
+        <v>45</v>
+      </c>
+      <c r="G8" s="1">
+        <f>0.75*G4</f>
+        <v>56.25</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="1">
+        <f>0.85*C4</f>
+        <v>85</v>
+      </c>
+      <c r="D9" s="1">
+        <f>0.85*D4</f>
+        <v>102</v>
+      </c>
+      <c r="E9" s="1">
+        <f>0.85*E4</f>
+        <v>123.25</v>
+      </c>
+      <c r="F9" s="1">
+        <f>0.85*F4</f>
+        <v>51</v>
+      </c>
+      <c r="G9" s="1">
+        <f>0.85*G4</f>
+        <v>63.75</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="1">
+        <f>0.7*C4</f>
+        <v>70</v>
+      </c>
+      <c r="D11" s="1">
+        <f>0.7*D4</f>
+        <v>84</v>
+      </c>
+      <c r="E11" s="1">
+        <f>0.7*E4</f>
+        <v>101.5</v>
+      </c>
+      <c r="F11" s="1">
+        <f>0.7*F4</f>
+        <v>42</v>
+      </c>
+      <c r="G11" s="1">
+        <f>0.7*G4</f>
+        <v>52.5</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="1">
+        <f>0.8*C4</f>
+        <v>80</v>
+      </c>
+      <c r="D12" s="1">
+        <f>0.8*D4</f>
+        <v>96</v>
+      </c>
+      <c r="E12" s="1">
+        <f>0.8*E4</f>
+        <v>116</v>
+      </c>
+      <c r="F12" s="1">
+        <f>0.8*F4</f>
+        <v>48</v>
+      </c>
+      <c r="G12" s="1">
+        <f>0.8*G4</f>
+        <v>60</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="1">
+        <f>0.9*C4</f>
+        <v>90</v>
+      </c>
+      <c r="D13" s="1">
+        <f>0.9*D4</f>
+        <v>108</v>
+      </c>
+      <c r="E13" s="1">
+        <f>0.9*E4</f>
+        <v>130.5</v>
+      </c>
+      <c r="F13" s="1">
+        <f>0.9*F4</f>
+        <v>54</v>
+      </c>
+      <c r="G13" s="1">
+        <f>0.9*G4</f>
+        <v>67.5</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="1">
+        <f>0.75*C4</f>
+        <v>75</v>
+      </c>
+      <c r="D15" s="1">
+        <f>0.75*D4</f>
+        <v>90</v>
+      </c>
+      <c r="E15" s="1">
+        <f>0.75*E4</f>
+        <v>108.75</v>
+      </c>
+      <c r="F15" s="1">
+        <f>0.75*F4</f>
+        <v>45</v>
+      </c>
+      <c r="G15" s="1">
+        <f>0.75*G4</f>
+        <v>56.25</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="1">
+        <f>0.85*C4</f>
+        <v>85</v>
+      </c>
+      <c r="D16" s="1">
+        <f>0.85*D4</f>
+        <v>102</v>
+      </c>
+      <c r="E16" s="1">
+        <f>0.85*E4</f>
+        <v>123.25</v>
+      </c>
+      <c r="F16" s="1">
+        <f>0.85*F4</f>
+        <v>51</v>
+      </c>
+      <c r="G16" s="1">
+        <f>0.85*G4</f>
+        <v>63.75</v>
+      </c>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="1">
+        <f>0.95*C4</f>
+        <v>95</v>
+      </c>
+      <c r="D17" s="1">
+        <f>0.95*D4</f>
+        <v>114</v>
+      </c>
+      <c r="E17" s="1">
+        <f>0.95*E4</f>
+        <v>137.75</v>
+      </c>
+      <c r="F17" s="1">
+        <f>0.95*F4</f>
+        <v>57</v>
+      </c>
+      <c r="G17" s="1">
+        <f>0.95*G4</f>
+        <v>71.25</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="1">
+        <f>0.4*C4</f>
+        <v>40</v>
+      </c>
+      <c r="D19" s="1">
+        <f>0.4*D4</f>
+        <v>48</v>
+      </c>
+      <c r="E19" s="1">
+        <f>0.4*E4</f>
+        <v>58</v>
+      </c>
+      <c r="F19" s="1">
+        <f>0.4*F4</f>
+        <v>24</v>
+      </c>
+      <c r="G19" s="1">
+        <f>0.4*G4</f>
+        <v>30</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="1">
+        <f>0.5*C4</f>
+        <v>50</v>
+      </c>
+      <c r="D20" s="1">
+        <f>0.5*D4</f>
+        <v>60</v>
+      </c>
+      <c r="E20" s="1">
+        <f>0.5*E4</f>
+        <v>72.5</v>
+      </c>
+      <c r="F20" s="1">
+        <f>0.5*F4</f>
+        <v>30</v>
+      </c>
+      <c r="G20" s="1">
+        <f>0.5*G4</f>
+        <v>37.5</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="1">
+        <f>0.6*C4</f>
+        <v>60</v>
+      </c>
+      <c r="D21" s="1">
+        <f>0.6*D4</f>
+        <v>72</v>
+      </c>
+      <c r="E21" s="1">
+        <f>0.6*E4</f>
+        <v>87</v>
+      </c>
+      <c r="F21" s="1">
+        <f>0.6*F4</f>
+        <v>36</v>
+      </c>
+      <c r="G21" s="1">
+        <f>0.6*G4</f>
+        <v>45</v>
+      </c>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1">
+        <v>7</v>
+      </c>
+      <c r="I27" s="1">
+        <v>8</v>
+      </c>
+      <c r="J27" s="1">
+        <v>9</v>
+      </c>
+      <c r="K27" s="1">
+        <v>10</v>
+      </c>
+      <c r="L27" s="1">
+        <v>11</v>
+      </c>
+      <c r="M27" s="1">
+        <v>12</v>
+      </c>
+      <c r="N27" s="1">
+        <v>13</v>
+      </c>
+      <c r="O27" s="1">
+        <v>14</v>
+      </c>
+      <c r="P27" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>16</v>
+      </c>
+      <c r="R27" s="1">
+        <v>17</v>
+      </c>
+      <c r="S27" s="19">
+        <v>18</v>
+      </c>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>72.5</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
+        <v>65</v>
+      </c>
+      <c r="G28" s="1">
+        <v>70</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1">
+        <v>70</v>
+      </c>
+      <c r="K28" s="1">
+        <v>75</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>77.5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>82.5</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1">
+        <v>75</v>
+      </c>
+      <c r="G29" s="1">
+        <v>80</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1">
+        <v>80</v>
+      </c>
+      <c r="K29" s="1">
+        <v>85</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21">
+        <v>85</v>
+      </c>
+      <c r="D30" s="21">
+        <v>92.5</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21">
+        <v>85</v>
+      </c>
+      <c r="G30" s="21">
+        <v>90</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21">
+        <v>90</v>
+      </c>
+      <c r="K30" s="21">
+        <v>95</v>
+      </c>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1">
+        <v>7</v>
+      </c>
+      <c r="I33" s="1">
+        <v>8</v>
+      </c>
+      <c r="J33" s="1">
+        <v>9</v>
+      </c>
+      <c r="K33" s="1">
+        <v>10</v>
+      </c>
+      <c r="L33" s="1">
+        <v>11</v>
+      </c>
+      <c r="M33" s="1">
+        <v>12</v>
+      </c>
+      <c r="N33" s="1">
+        <v>13</v>
+      </c>
+      <c r="O33" s="1">
+        <v>14</v>
+      </c>
+      <c r="P33" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>16</v>
+      </c>
+      <c r="R33" s="1">
+        <v>17</v>
+      </c>
+      <c r="S33" s="19">
+        <v>18</v>
+      </c>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1">
+        <v>80</v>
+      </c>
+      <c r="D34" s="1">
+        <v>82.5</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1">
+        <v>80</v>
+      </c>
+      <c r="G34" s="1">
+        <v>85</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1">
+        <v>85</v>
+      </c>
+      <c r="K34" s="1">
+        <v>90</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1">
+        <v>90</v>
+      </c>
+      <c r="D35" s="1">
+        <v>95</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1">
+        <v>90</v>
+      </c>
+      <c r="G35" s="1">
+        <v>97.5</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1">
+        <v>97.5</v>
+      </c>
+      <c r="K35" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21">
+        <v>100</v>
+      </c>
+      <c r="D36" s="21">
+        <v>105</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21">
+        <v>102.5</v>
+      </c>
+      <c r="G36" s="21">
+        <v>110</v>
+      </c>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21">
+        <v>110</v>
+      </c>
+      <c r="K36" s="21">
+        <v>115</v>
+      </c>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6</v>
+      </c>
+      <c r="H39" s="1">
+        <v>7</v>
+      </c>
+      <c r="I39" s="1">
+        <v>8</v>
+      </c>
+      <c r="J39" s="1">
+        <v>9</v>
+      </c>
+      <c r="K39" s="1">
+        <v>10</v>
+      </c>
+      <c r="L39" s="1">
+        <v>11</v>
+      </c>
+      <c r="M39" s="1">
+        <v>12</v>
+      </c>
+      <c r="N39" s="1">
+        <v>13</v>
+      </c>
+      <c r="O39" s="1">
+        <v>14</v>
+      </c>
+      <c r="P39" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>16</v>
+      </c>
+      <c r="R39" s="1">
+        <v>17</v>
+      </c>
+      <c r="S39" s="19">
+        <v>18</v>
+      </c>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="1">
+        <v>87.5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>100</v>
+      </c>
+      <c r="D40" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1">
+        <v>95</v>
+      </c>
+      <c r="G40" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="K40" s="1">
+        <v>110</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="1">
+        <v>102.5</v>
+      </c>
+      <c r="C41" s="1">
+        <v>110</v>
+      </c>
+      <c r="D41" s="1">
+        <v>115</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1">
+        <v>110</v>
+      </c>
+      <c r="G41" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1">
+        <v>117.5</v>
+      </c>
+      <c r="K41" s="1">
+        <v>125</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+    </row>
+    <row r="42" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="21">
+        <v>115</v>
+      </c>
+      <c r="C42" s="21">
+        <v>122.5</v>
+      </c>
+      <c r="D42" s="21">
+        <v>130</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21">
+        <v>125</v>
+      </c>
+      <c r="G42" s="21">
+        <v>132.5</v>
+      </c>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21">
+        <v>132.5</v>
+      </c>
+      <c r="K42" s="21">
+        <v>140</v>
+      </c>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+    </row>
+    <row r="43" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>6</v>
+      </c>
+      <c r="H45" s="1">
+        <v>7</v>
+      </c>
+      <c r="I45" s="1">
+        <v>8</v>
+      </c>
+      <c r="J45" s="1">
+        <v>9</v>
+      </c>
+      <c r="K45" s="1">
+        <v>10</v>
+      </c>
+      <c r="L45" s="1">
+        <v>11</v>
+      </c>
+      <c r="M45" s="1">
+        <v>12</v>
+      </c>
+      <c r="N45" s="1">
+        <v>13</v>
+      </c>
+      <c r="O45" s="1">
+        <v>14</v>
+      </c>
+      <c r="P45" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>16</v>
+      </c>
+      <c r="R45" s="1">
+        <v>17</v>
+      </c>
+      <c r="S45" s="19">
+        <v>18</v>
+      </c>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="1">
+        <v>40</v>
+      </c>
+      <c r="C46" s="1">
+        <v>40</v>
+      </c>
+      <c r="D46" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1">
+        <v>40</v>
+      </c>
+      <c r="G46" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="K46" s="1">
+        <v>45</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45</v>
+      </c>
+      <c r="D47" s="1">
+        <v>47.4</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1">
+        <v>45</v>
+      </c>
+      <c r="G47" s="1">
+        <v>50</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1">
+        <v>50</v>
+      </c>
+      <c r="K47" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+    </row>
+    <row r="48" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="21">
+        <v>47.5</v>
+      </c>
+      <c r="C48" s="21">
+        <v>50</v>
+      </c>
+      <c r="D48" s="21">
+        <v>52.5</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21">
+        <v>52.5</v>
+      </c>
+      <c r="G48" s="21">
+        <v>55</v>
+      </c>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21">
+        <v>55</v>
+      </c>
+      <c r="K48" s="21">
+        <v>57.5</v>
+      </c>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+    </row>
+    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="17"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>6</v>
+      </c>
+      <c r="H51" s="1">
+        <v>7</v>
+      </c>
+      <c r="I51" s="1">
+        <v>8</v>
+      </c>
+      <c r="J51" s="1">
+        <v>9</v>
+      </c>
+      <c r="K51" s="1">
+        <v>10</v>
+      </c>
+      <c r="L51" s="1">
+        <v>11</v>
+      </c>
+      <c r="M51" s="1">
+        <v>12</v>
+      </c>
+      <c r="N51" s="1">
+        <v>13</v>
+      </c>
+      <c r="O51" s="1">
+        <v>14</v>
+      </c>
+      <c r="P51" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>16</v>
+      </c>
+      <c r="R51" s="1">
+        <v>17</v>
+      </c>
+      <c r="S51" s="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1">
+        <v>50</v>
+      </c>
+      <c r="D52" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1">
+        <v>50</v>
+      </c>
+      <c r="G52" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="K52" s="1">
+        <v>60</v>
+      </c>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="19"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1">
+        <v>55</v>
+      </c>
+      <c r="D53" s="1">
+        <v>60</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="G53" s="1">
+        <v>60</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1">
+        <v>60</v>
+      </c>
+      <c r="K53" s="1">
+        <v>65</v>
+      </c>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="19"/>
+    </row>
+    <row r="54" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21">
+        <v>65</v>
+      </c>
+      <c r="D54" s="21">
+        <v>67.5</v>
+      </c>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21">
+        <v>65</v>
+      </c>
+      <c r="G54" s="21">
+        <v>67.5</v>
+      </c>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21">
+        <v>67.5</v>
+      </c>
+      <c r="K54" s="21">
+        <v>72.5</v>
+      </c>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>